--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1939.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1939.xlsx
@@ -351,10 +351,10 @@
         <v>1.325318939642942</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.607720774555258</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1939.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1939.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.325318939642942</v>
+        <v>0.6049340963363647</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>0.7593464851379395</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.104142069816589</v>
       </c>
       <c r="D1">
-        <v>1.607720774555258</v>
+        <v>4.315260887145996</v>
       </c>
       <c r="E1">
-        <v>1.106228739626652</v>
+        <v>6.281651973724365</v>
       </c>
     </row>
   </sheetData>
